--- a/Sorption Experiments/RaPYRArtificialWater/RaPYRArtificialWater Equilibrated Data.xlsx
+++ b/Sorption Experiments/RaPYRArtificialWater/RaPYRArtificialWater Equilibrated Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Counts (cps)</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>RaPYRASW_1C_2P</t>
+  </si>
+  <si>
+    <t>RaPYRASW_1A</t>
+  </si>
+  <si>
+    <t>RaPYRASW_1B</t>
+  </si>
+  <si>
+    <t>RaPYRASW_1C</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,6 +526,39 @@
         <v>0.4212944047619048</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7.497916666666666</v>
+      </c>
+      <c r="C11">
+        <v>0.2236253645833333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7.414583333333334</v>
+      </c>
+      <c r="C12">
+        <v>0.2224375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>7.042083333333333</v>
+      </c>
+      <c r="C13">
+        <v>0.2168961666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
